--- a/src/analysis_examples/circadb/results_lomb/cosinor_10368970_prdm1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10368970_prdm1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20942987090900844, 0.3194805618894755]</t>
+          <t>[0.20822065286469044, 0.3206897799337935]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.955311246248925e-09</v>
+        <v>2.856972880493913e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.955311246248925e-09</v>
+        <v>2.856972880493913e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.25789495639231</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.39215944077149845, 0.45528173012004325]</t>
+          <t>[0.39213474158574896, 0.45530642930579274]</t>
         </is>
       </c>
       <c r="U2" t="n">
